--- a/test/xintou02.xlsx
+++ b/test/xintou02.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13660" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="13660" firstSheet="2"/>
   </bookViews>
   <sheets>
-    <sheet name="业务受理信息-受理信息" sheetId="2" r:id="rId1"/>
-    <sheet name="业务受理信息-复核信息" sheetId="3" r:id="rId2"/>
-    <sheet name="贷款申请信息-借据列表" sheetId="4" r:id="rId3"/>
+    <sheet name="贷款申请信息-借据列表2" sheetId="5" r:id="rId1"/>
+    <sheet name="业务受理信息-受理信息" sheetId="2" r:id="rId2"/>
+    <sheet name="业务受理信息-复核信息" sheetId="3" r:id="rId3"/>
+    <sheet name="贷款申请信息-借据列表" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1451" uniqueCount="221">
+  <si>
+    <t>表中文名</t>
+  </si>
+  <si>
+    <t>aply_dbil_list</t>
+  </si>
+  <si>
+    <t>返回目录</t>
+  </si>
+  <si>
+    <t>表英文名</t>
+  </si>
+  <si>
+    <t>贷款申请信息-借据列表</t>
+  </si>
+  <si>
+    <t>L系统</t>
+  </si>
+  <si>
+    <t>P系统</t>
+  </si>
+  <si>
+    <t>S系统</t>
+  </si>
+  <si>
+    <t>功能说明</t>
+  </si>
   <si>
     <t>字段序号</t>
   </si>
@@ -115,484 +143,280 @@
     <t/>
   </si>
   <si>
-    <t>2023-12-27 20:38:34</t>
-  </si>
-  <si>
-    <t>P系统</t>
-  </si>
-  <si>
-    <t>BSN_ACPT_NO</t>
-  </si>
-  <si>
-    <t>业务受理编号</t>
+    <t>2023-12-24 15:03:56</t>
+  </si>
+  <si>
+    <t>LOAN_APLY_NO</t>
+  </si>
+  <si>
+    <t>贷款申请编号</t>
+  </si>
+  <si>
+    <t>2023-12-24 15:03:48</t>
+  </si>
+  <si>
+    <t>BUSINESS_APPLY</t>
+  </si>
+  <si>
+    <t>业务申请信息</t>
+  </si>
+  <si>
+    <t>BA.SERIALNO</t>
+  </si>
+  <si>
+    <t>流水号</t>
+  </si>
+  <si>
+    <t>VARCHAR(40)</t>
+  </si>
+  <si>
+    <t>平移</t>
+  </si>
+  <si>
+    <t>VARCHAR2(32)</t>
+  </si>
+  <si>
+    <t>DBIL_NO</t>
+  </si>
+  <si>
+    <t>借据编号</t>
+  </si>
+  <si>
+    <t>2023-12-24 15:00:58</t>
+  </si>
+  <si>
+    <t>BUSINESS_DUEBILL</t>
+  </si>
+  <si>
+    <t>业务借据(账户)信息</t>
+  </si>
+  <si>
+    <t>BD.SERIALNO</t>
+  </si>
+  <si>
+    <t>借据号(账号)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(40)</t>
+  </si>
+  <si>
+    <t>CTR_NO</t>
+  </si>
+  <si>
+    <t>合同编号</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>bd.RELATIVESERIALNO2</t>
+  </si>
+  <si>
+    <t>相关合同流水号</t>
+  </si>
+  <si>
+    <t>CST_NM</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>VARCHAR(450)</t>
+  </si>
+  <si>
+    <t>bd.CUSTOMERNAME</t>
+  </si>
+  <si>
+    <t>VARCHAR(80)</t>
+  </si>
+  <si>
+    <t>BD.CUSTOMERNAME</t>
+  </si>
+  <si>
+    <t>VARCHAR2(80)</t>
+  </si>
+  <si>
+    <t>PRD_MARK</t>
+  </si>
+  <si>
+    <t>产品标识</t>
   </si>
   <si>
     <t>VARCHAR(32)</t>
   </si>
   <si>
-    <t>2023-12-27 20:38:12</t>
-  </si>
-  <si>
-    <t>ONLINE_ORDER_RECORD</t>
-  </si>
-  <si>
-    <t>金领贷订单信息表</t>
-  </si>
-  <si>
-    <t>ORDERID</t>
-  </si>
-  <si>
-    <t>订单号</t>
-  </si>
-  <si>
-    <t>VARCHAR2(32)</t>
-  </si>
-  <si>
-    <t>平移</t>
-  </si>
-  <si>
-    <t>ACPT_CNLU</t>
-  </si>
-  <si>
-    <t>受理结论</t>
-  </si>
-  <si>
-    <t>VARCHAR(3)</t>
+    <t>2024-03-28 19:58:06</t>
+  </si>
+  <si>
+    <t>PRD_NO</t>
+  </si>
+  <si>
+    <t>产品编号</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>2024-03-28 19:57:33</t>
+  </si>
+  <si>
+    <t>PRD_NM</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>VARCHAR(300)</t>
+  </si>
+  <si>
+    <t>DBIL_AMT</t>
+  </si>
+  <si>
+    <t>借据金额</t>
+  </si>
+  <si>
+    <t>DECIMAL(20,2)</t>
+  </si>
+  <si>
+    <t>金额类</t>
+  </si>
+  <si>
+    <t>bd.BUSINESSSUM</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>DECIMAL(24,6)</t>
+  </si>
+  <si>
+    <t>BD.BUSINESSSUM</t>
+  </si>
+  <si>
+    <t>NUMBER(22,6)</t>
+  </si>
+  <si>
+    <t>LOAN_TRM</t>
+  </si>
+  <si>
+    <t>贷款期限</t>
+  </si>
+  <si>
+    <t>INT(4)</t>
+  </si>
+  <si>
+    <t>数值类</t>
+  </si>
+  <si>
+    <t>bd.ACTUALTERMMONTH</t>
+  </si>
+  <si>
+    <t>(DEL)实际期限月</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>business_contract</t>
+  </si>
+  <si>
+    <t>业务合同信息</t>
+  </si>
+  <si>
+    <t>bc.TERMMONTH</t>
+  </si>
+  <si>
+    <t>期限</t>
+  </si>
+  <si>
+    <t>NUMBER(22,0)</t>
+  </si>
+  <si>
+    <t>SPLS_PRCP</t>
+  </si>
+  <si>
+    <t>剩余本金</t>
+  </si>
+  <si>
+    <t>DECIMAL(21,2)</t>
+  </si>
+  <si>
+    <t>SPLS_PERD_NUM</t>
+  </si>
+  <si>
+    <t>剩余期数</t>
+  </si>
+  <si>
+    <t>DBIL_BGN_DT</t>
+  </si>
+  <si>
+    <t>借据起始日</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>日期类</t>
+  </si>
+  <si>
+    <t>bd.PUTOUTDATE</t>
+  </si>
+  <si>
+    <t>发放日期</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>放款日期</t>
+  </si>
+  <si>
+    <t>DBIL_MTU_DT</t>
+  </si>
+  <si>
+    <t>借据到期日</t>
+  </si>
+  <si>
+    <t>bd.ACTUALMATURITY</t>
+  </si>
+  <si>
+    <t>执行到期日</t>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+  </si>
+  <si>
+    <t>HST_CST_MAGR</t>
+  </si>
+  <si>
+    <t>主办客户经理</t>
+  </si>
+  <si>
+    <t>VARCHAR(6)</t>
+  </si>
+  <si>
+    <t>bd.OPERATEUSERID</t>
+  </si>
+  <si>
+    <t>经办人</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+  </si>
+  <si>
+    <t>DBIL_STS</t>
+  </si>
+  <si>
+    <t>借据状态</t>
+  </si>
+  <si>
+    <t>VARCHAR(4)</t>
   </si>
   <si>
     <t>代码类</t>
-  </si>
-  <si>
-    <t>1-拒件
-2-转尽调</t>
-  </si>
-  <si>
-    <t>2023-12-27 20:37:46</t>
-  </si>
-  <si>
-    <t>RFS_RSN</t>
-  </si>
-  <si>
-    <t>拒绝原因</t>
-  </si>
-  <si>
-    <t>LONGTEXT</t>
-  </si>
-  <si>
-    <t>ERRCODE</t>
-  </si>
-  <si>
-    <t>错误类型:00 成功,11 公积金程序异常,12 公积金获取数据异常,13 公积金指标处理异常,21 司法数据程序异常,22 司法数据获取数据异常,23 司法数据指标处理异常,31 决策引擎程序异常,32 决策引擎缺乏必要交易字段,33 命中决策引擎,41 黑灰名单程序异常,51 风险等级程序异常,61 查冻扣程序异常,99 其他异常,88  信贷系统内额度校验不通过</t>
-  </si>
-  <si>
-    <t>VARCHAR2(5)</t>
-  </si>
-  <si>
-    <t>ACPT_OPR_TM</t>
-  </si>
-  <si>
-    <t>受理操作时间</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>日期类</t>
-  </si>
-  <si>
-    <t>2023-12-27 20:38:01</t>
-  </si>
-  <si>
-    <t>DEL_IND</t>
-  </si>
-  <si>
-    <t>删除标识</t>
-  </si>
-  <si>
-    <t>VARCHAR(1)</t>
-  </si>
-  <si>
-    <t>1-是
-0-否</t>
-  </si>
-  <si>
-    <t>2023-12-27 20:37:38</t>
-  </si>
-  <si>
-    <t>BEL_MNG_LGP_ID</t>
-  </si>
-  <si>
-    <t>归属管理法人编号</t>
-  </si>
-  <si>
-    <t>VARCHAR(12)</t>
-  </si>
-  <si>
-    <t>LAST_UPD_PSN</t>
-  </si>
-  <si>
-    <t>最后更新人</t>
-  </si>
-  <si>
-    <t>VARCHAR(6)</t>
-  </si>
-  <si>
-    <t>LAST_UPD_TM</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>日期时间类</t>
-  </si>
-  <si>
-    <t>LAST_UPD_ORG</t>
-  </si>
-  <si>
-    <t>最后更新机构</t>
-  </si>
-  <si>
-    <t>LGP_ID</t>
-  </si>
-  <si>
-    <t>法人编号</t>
-  </si>
-  <si>
-    <t>SYS_REG_PSN</t>
-  </si>
-  <si>
-    <t>系统登记人</t>
-  </si>
-  <si>
-    <t>2023-12-27 20:37:39</t>
-  </si>
-  <si>
-    <t>SYS_REG_TM</t>
-  </si>
-  <si>
-    <t>系统登记时间</t>
-  </si>
-  <si>
-    <t>INPUTTIME</t>
-  </si>
-  <si>
-    <t>登记时间（格式yyyy-MM-dd HH:mm:ss）</t>
-  </si>
-  <si>
-    <t>VARCHAR2(19)</t>
-  </si>
-  <si>
-    <t>SYS_REG_ORG</t>
-  </si>
-  <si>
-    <t>系统登记机构</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>ONLINE_ORDER_RECORD where PRODUCTTYPE = 'JLD'</t>
-  </si>
-  <si>
-    <t>2023-12-27 20:41:11</t>
-  </si>
-  <si>
-    <t>2023-12-27 20:40:57</t>
-  </si>
-  <si>
-    <t>RVW_CNLU</t>
-  </si>
-  <si>
-    <t>复核结论</t>
-  </si>
-  <si>
-    <t>1-同意
-2-否决</t>
-  </si>
-  <si>
-    <t>2023-12-27 20:40:52</t>
-  </si>
-  <si>
-    <t>CASE WHEN nvl(phaseno,' ') = '1000' THEN 1 ELSE 2 END</t>
-  </si>
-  <si>
-    <t>RVW_OPNN</t>
-  </si>
-  <si>
-    <t>复核意见</t>
-  </si>
-  <si>
-    <t>VARCHAR(4000)</t>
-  </si>
-  <si>
-    <t>RVW_OPR_TM</t>
-  </si>
-  <si>
-    <t>复核操作时间</t>
-  </si>
-  <si>
-    <t>2023-12-27 20:40:36</t>
-  </si>
-  <si>
-    <t>from ONLINE_ORDER_RECORD oor LEFT JOIN FLOW_OBJECT fo on oor.BASERIALNO =fo.OBJECTNO</t>
-  </si>
-  <si>
-    <t>2023-12-24 15:03:56</t>
-  </si>
-  <si>
-    <t>L系统</t>
-  </si>
-  <si>
-    <t>LOAN_APLY_NO</t>
-  </si>
-  <si>
-    <t>贷款申请编号</t>
-  </si>
-  <si>
-    <t>2023-12-24 15:03:48</t>
-  </si>
-  <si>
-    <t>BUSINESS_APPLY</t>
-  </si>
-  <si>
-    <t>业务申请信息</t>
-  </si>
-  <si>
-    <t>BA.SERIALNO</t>
-  </si>
-  <si>
-    <t>流水号</t>
-  </si>
-  <si>
-    <t>VARCHAR(40)</t>
-  </si>
-  <si>
-    <t>DBIL_NO</t>
-  </si>
-  <si>
-    <t>借据编号</t>
-  </si>
-  <si>
-    <t>2023-12-24 15:00:58</t>
-  </si>
-  <si>
-    <t>BUSINESS_DUEBILL</t>
-  </si>
-  <si>
-    <t>业务借据(账户)信息</t>
-  </si>
-  <si>
-    <t>BD.SERIALNO</t>
-  </si>
-  <si>
-    <t>借据号(账号)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(40)</t>
-  </si>
-  <si>
-    <t>CTR_NO</t>
-  </si>
-  <si>
-    <t>合同编号</t>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-  </si>
-  <si>
-    <t>bd.RELATIVESERIALNO2</t>
-  </si>
-  <si>
-    <t>相关合同流水号</t>
-  </si>
-  <si>
-    <t>CST_NM</t>
-  </si>
-  <si>
-    <t>客户名称</t>
-  </si>
-  <si>
-    <t>VARCHAR(450)</t>
-  </si>
-  <si>
-    <t>bd.CUSTOMERNAME</t>
-  </si>
-  <si>
-    <t>VARCHAR(80)</t>
-  </si>
-  <si>
-    <t>BD.CUSTOMERNAME</t>
-  </si>
-  <si>
-    <t>VARCHAR2(80)</t>
-  </si>
-  <si>
-    <t>PRD_MARK</t>
-  </si>
-  <si>
-    <t>产品标识</t>
-  </si>
-  <si>
-    <t>2024-03-28 19:58:06</t>
-  </si>
-  <si>
-    <t>PRD_NO</t>
-  </si>
-  <si>
-    <t>产品编号</t>
-  </si>
-  <si>
-    <t>VARCHAR(200)</t>
-  </si>
-  <si>
-    <t>2024-03-28 19:57:33</t>
-  </si>
-  <si>
-    <t>PRD_NM</t>
-  </si>
-  <si>
-    <t>产品名称</t>
-  </si>
-  <si>
-    <t>VARCHAR(300)</t>
-  </si>
-  <si>
-    <t>DBIL_AMT</t>
-  </si>
-  <si>
-    <t>借据金额</t>
-  </si>
-  <si>
-    <t>DECIMAL(20,2)</t>
-  </si>
-  <si>
-    <t>金额类</t>
-  </si>
-  <si>
-    <t>bd.BUSINESSSUM</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>DECIMAL(24,6)</t>
-  </si>
-  <si>
-    <t>BD.BUSINESSSUM</t>
-  </si>
-  <si>
-    <t>NUMBER(22,6)</t>
-  </si>
-  <si>
-    <t>LOAN_TRM</t>
-  </si>
-  <si>
-    <t>贷款期限</t>
-  </si>
-  <si>
-    <t>INT(4)</t>
-  </si>
-  <si>
-    <t>数值类</t>
-  </si>
-  <si>
-    <t>bd.ACTUALTERMMONTH</t>
-  </si>
-  <si>
-    <t>(DEL)实际期限月</t>
-  </si>
-  <si>
-    <t>INTEGER</t>
-  </si>
-  <si>
-    <t>business_contract</t>
-  </si>
-  <si>
-    <t>业务合同信息</t>
-  </si>
-  <si>
-    <t>bc.TERMMONTH</t>
-  </si>
-  <si>
-    <t>期限</t>
-  </si>
-  <si>
-    <t>NUMBER(22,0)</t>
-  </si>
-  <si>
-    <t>SPLS_PRCP</t>
-  </si>
-  <si>
-    <t>剩余本金</t>
-  </si>
-  <si>
-    <t>DECIMAL(21,2)</t>
-  </si>
-  <si>
-    <t>SPLS_PERD_NUM</t>
-  </si>
-  <si>
-    <t>剩余期数</t>
-  </si>
-  <si>
-    <t>DBIL_BGN_DT</t>
-  </si>
-  <si>
-    <t>借据起始日</t>
-  </si>
-  <si>
-    <t>bd.PUTOUTDATE</t>
-  </si>
-  <si>
-    <t>发放日期</t>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-  </si>
-  <si>
-    <t>放款日期</t>
-  </si>
-  <si>
-    <t>DBIL_MTU_DT</t>
-  </si>
-  <si>
-    <t>借据到期日</t>
-  </si>
-  <si>
-    <t>bd.ACTUALMATURITY</t>
-  </si>
-  <si>
-    <t>执行到期日</t>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-  </si>
-  <si>
-    <t>HST_CST_MAGR</t>
-  </si>
-  <si>
-    <t>主办客户经理</t>
-  </si>
-  <si>
-    <t>bd.OPERATEUSERID</t>
-  </si>
-  <si>
-    <t>经办人</t>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>VARCHAR2(20)</t>
-  </si>
-  <si>
-    <t>DBIL_STS</t>
-  </si>
-  <si>
-    <t>借据状态</t>
-  </si>
-  <si>
-    <t>VARCHAR(4)</t>
   </si>
   <si>
     <t>FS01-正常贷款
@@ -634,9 +458,46 @@
     <t>getorgname(bd.OPERATEORGID)</t>
   </si>
   <si>
+    <t>DEL_IND</t>
+  </si>
+  <si>
+    <t>删除标识</t>
+  </si>
+  <si>
+    <t>VARCHAR(1)</t>
+  </si>
+  <si>
+    <t>1-是
+0-否</t>
+  </si>
+  <si>
     <t>2023-12-24 14:54:31</t>
   </si>
   <si>
+    <t>BEL_MNG_LGP_ID</t>
+  </si>
+  <si>
+    <t>归属管理法人编号</t>
+  </si>
+  <si>
+    <t>VARCHAR(12)</t>
+  </si>
+  <si>
+    <t>LAST_UPD_PSN</t>
+  </si>
+  <si>
+    <t>最后更新人</t>
+  </si>
+  <si>
+    <t>LAST_UPD_TM</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>日期时间类</t>
+  </si>
+  <si>
     <t>bd.UPDATEDATE</t>
   </si>
   <si>
@@ -646,6 +507,24 @@
     <t>更新时间</t>
   </si>
   <si>
+    <t>LAST_UPD_ORG</t>
+  </si>
+  <si>
+    <t>最后更新机构</t>
+  </si>
+  <si>
+    <t>LGP_ID</t>
+  </si>
+  <si>
+    <t>法人编号</t>
+  </si>
+  <si>
+    <t>SYS_REG_PSN</t>
+  </si>
+  <si>
+    <t>系统登记人</t>
+  </si>
+  <si>
     <t>bd.INPUTUSERID</t>
   </si>
   <si>
@@ -655,6 +534,12 @@
     <t>插入人</t>
   </si>
   <si>
+    <t>SYS_REG_TM</t>
+  </si>
+  <si>
+    <t>系统登记时间</t>
+  </si>
+  <si>
     <t>bd.INPUTDATE</t>
   </si>
   <si>
@@ -664,6 +549,12 @@
     <t>插入时间</t>
   </si>
   <si>
+    <t>SYS_REG_ORG</t>
+  </si>
+  <si>
+    <t>系统登记机构</t>
+  </si>
+  <si>
     <t>bd.INPUTORGID</t>
   </si>
   <si>
@@ -677,6 +568,137 @@
   </si>
   <si>
     <t>from BUSINESS_DUEBILL bd ,BUSINESS_CONTRACT bc ,BUSINESS_APPLY ba WHERE bd.RELATIVESERIALNO2 =bc.SERIALNO AND bc.RELATIVESERIALNO = ba.SERIALNO</t>
+  </si>
+  <si>
+    <t>2023-12-27 20:38:34</t>
+  </si>
+  <si>
+    <t>BSN_ACPT_NO</t>
+  </si>
+  <si>
+    <t>业务受理编号</t>
+  </si>
+  <si>
+    <t>2023-12-27 20:38:12</t>
+  </si>
+  <si>
+    <t>ONLINE_ORDER_RECORD</t>
+  </si>
+  <si>
+    <t>金领贷订单信息表</t>
+  </si>
+  <si>
+    <t>ORDERID</t>
+  </si>
+  <si>
+    <t>订单号</t>
+  </si>
+  <si>
+    <t>ACPT_CNLU</t>
+  </si>
+  <si>
+    <t>受理结论</t>
+  </si>
+  <si>
+    <t>VARCHAR(3)</t>
+  </si>
+  <si>
+    <t>1-拒件
+2-转尽调</t>
+  </si>
+  <si>
+    <t>2023-12-27 20:37:46</t>
+  </si>
+  <si>
+    <t>RFS_RSN</t>
+  </si>
+  <si>
+    <t>拒绝原因</t>
+  </si>
+  <si>
+    <t>LONGTEXT</t>
+  </si>
+  <si>
+    <t>ERRCODE</t>
+  </si>
+  <si>
+    <t>错误类型:00 成功,11 公积金程序异常,12 公积金获取数据异常,13 公积金指标处理异常,21 司法数据程序异常,22 司法数据获取数据异常,23 司法数据指标处理异常,31 决策引擎程序异常,32 决策引擎缺乏必要交易字段,33 命中决策引擎,41 黑灰名单程序异常,51 风险等级程序异常,61 查冻扣程序异常,99 其他异常,88  信贷系统内额度校验不通过</t>
+  </si>
+  <si>
+    <t>VARCHAR2(5)</t>
+  </si>
+  <si>
+    <t>ACPT_OPR_TM</t>
+  </si>
+  <si>
+    <t>受理操作时间</t>
+  </si>
+  <si>
+    <t>2023-12-27 20:38:01</t>
+  </si>
+  <si>
+    <t>2023-12-27 20:37:38</t>
+  </si>
+  <si>
+    <t>2023-12-27 20:37:39</t>
+  </si>
+  <si>
+    <t>INPUTTIME</t>
+  </si>
+  <si>
+    <t>登记时间（格式yyyy-MM-dd HH:mm:ss）</t>
+  </si>
+  <si>
+    <t>VARCHAR2(19)</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>ONLINE_ORDER_RECORD where PRODUCTTYPE = 'JLD'</t>
+  </si>
+  <si>
+    <t>2023-12-27 20:41:11</t>
+  </si>
+  <si>
+    <t>2023-12-27 20:40:57</t>
+  </si>
+  <si>
+    <t>RVW_CNLU</t>
+  </si>
+  <si>
+    <t>复核结论</t>
+  </si>
+  <si>
+    <t>1-同意
+2-否决</t>
+  </si>
+  <si>
+    <t>2023-12-27 20:40:52</t>
+  </si>
+  <si>
+    <t>CASE WHEN nvl(phaseno,' ') = '1000' THEN 1 ELSE 2 END</t>
+  </si>
+  <si>
+    <t>RVW_OPNN</t>
+  </si>
+  <si>
+    <t>复核意见</t>
+  </si>
+  <si>
+    <t>VARCHAR(4000)</t>
+  </si>
+  <si>
+    <t>RVW_OPR_TM</t>
+  </si>
+  <si>
+    <t>复核操作时间</t>
+  </si>
+  <si>
+    <t>2023-12-27 20:40:36</t>
+  </si>
+  <si>
+    <t>from ONLINE_ORDER_RECORD oor LEFT JOIN FLOW_OBJECT fo on oor.BASERIALNO =fo.OBJECTNO</t>
   </si>
 </sst>
 </file>
@@ -689,7 +711,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,6 +735,38 @@
     <font>
       <i/>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -1097,7 +1151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1253,6 +1307,218 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1370,142 +1636,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1570,6 +1836,63 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="15" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2098,6 +2421,2709 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:AW31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="AH9" sqref="AH9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5480769230769" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="11.7692307692308" style="34" customWidth="1"/>
+    <col min="2" max="2" width="16.7788461538462" style="34" customWidth="1"/>
+    <col min="3" max="3" width="15.2596153846154" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.8557692307692" style="34" customWidth="1"/>
+    <col min="5" max="6" width="11.7692307692308" style="34" customWidth="1"/>
+    <col min="7" max="7" width="13.7307692307692" style="34" customWidth="1"/>
+    <col min="8" max="8" width="11.7692307692308" style="34" customWidth="1"/>
+    <col min="9" max="9" width="22.8846153846154" style="34" customWidth="1"/>
+    <col min="10" max="12" width="15.6923076923077" style="34" customWidth="1"/>
+    <col min="13" max="13" width="20.4903846153846" style="34" customWidth="1"/>
+    <col min="14" max="14" width="11.7692307692308" style="34" customWidth="1"/>
+    <col min="15" max="15" width="18.5288461538462" style="34" customWidth="1"/>
+    <col min="16" max="16" width="15.2596153846154" style="34" customWidth="1"/>
+    <col min="17" max="17" width="32.3653846153846" style="34" customWidth="1"/>
+    <col min="18" max="18" width="13.5096153846154" style="34" customWidth="1"/>
+    <col min="19" max="19" width="11.7692307692308" style="34" customWidth="1"/>
+    <col min="20" max="20" width="14.3846153846154" style="34" customWidth="1"/>
+    <col min="21" max="21" width="33.5673076923077" style="34" customWidth="1"/>
+    <col min="22" max="22" width="11.7692307692308" style="34" customWidth="1"/>
+    <col min="23" max="23" width="18.9615384615385" style="34" customWidth="1"/>
+    <col min="24" max="24" width="15.6923076923077" style="34" customWidth="1"/>
+    <col min="25" max="26" width="11.7692307692308" style="34" customWidth="1"/>
+    <col min="27" max="27" width="23.2115384615385" style="34" customWidth="1"/>
+    <col min="28" max="28" width="11.7692307692308" style="34" customWidth="1"/>
+    <col min="29" max="29" width="25.3365384615385" style="34" customWidth="1"/>
+    <col min="30" max="34" width="11.7692307692308" style="34" customWidth="1"/>
+    <col min="35" max="35" width="17.2211538461538" style="34" customWidth="1"/>
+    <col min="36" max="36" width="13.9519230769231" style="34" customWidth="1"/>
+    <col min="37" max="46" width="11.7692307692308" style="34" customWidth="1"/>
+    <col min="47" max="47" width="17.6538461538462" style="34" customWidth="1"/>
+    <col min="48" max="48" width="13.9519230769231" style="34" customWidth="1"/>
+    <col min="49" max="49" width="11.7692307692308" style="34" customWidth="1"/>
+    <col min="50" max="16384" width="11.5480769230769" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" spans="1:49">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="46"/>
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="46"/>
+      <c r="AK1" s="46"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="46"/>
+      <c r="AN1" s="46"/>
+      <c r="AO1" s="46"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="46"/>
+      <c r="AV1" s="46"/>
+      <c r="AW1" s="46"/>
+    </row>
+    <row r="2" ht="16.5" customHeight="1" spans="1:49">
+      <c r="A2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="53"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:49">
+      <c r="A3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="52"/>
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="52"/>
+      <c r="AU3" s="52"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="54"/>
+    </row>
+    <row r="4" ht="33.75" customHeight="1" spans="1:49">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AR4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV4" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW4" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:49">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="27"/>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="30"/>
+      <c r="AV5" s="30"/>
+      <c r="AW5" s="32"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:49">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC6" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD6" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="30"/>
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="27"/>
+      <c r="AP6" s="27"/>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="27"/>
+      <c r="AS6" s="27"/>
+      <c r="AT6" s="27"/>
+      <c r="AU6" s="30"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="32"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:49">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" s="5"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC7" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD7" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="27"/>
+      <c r="AR7" s="27"/>
+      <c r="AS7" s="27"/>
+      <c r="AT7" s="27"/>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="30"/>
+      <c r="AW7" s="32"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:49">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA8" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB8" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD8" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE8" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
+      <c r="AP8" s="27"/>
+      <c r="AQ8" s="27"/>
+      <c r="AR8" s="27"/>
+      <c r="AS8" s="27"/>
+      <c r="AT8" s="27"/>
+      <c r="AU8" s="30"/>
+      <c r="AV8" s="30"/>
+      <c r="AW8" s="32"/>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:49">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="5"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD9" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE9" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27"/>
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="32"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15" customHeight="1" spans="1:49">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="29"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="29"/>
+      <c r="AS10" s="29"/>
+      <c r="AT10" s="29"/>
+      <c r="AU10" s="31"/>
+      <c r="AV10" s="31"/>
+      <c r="AW10" s="33"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15" customHeight="1" spans="1:49">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="31"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="33"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="29"/>
+      <c r="AS11" s="29"/>
+      <c r="AT11" s="29"/>
+      <c r="AU11" s="31"/>
+      <c r="AV11" s="31"/>
+      <c r="AW11" s="33"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15" customHeight="1" spans="1:49">
+      <c r="A12" s="7">
+        <v>8</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="31"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="31"/>
+      <c r="AV12" s="31"/>
+      <c r="AW12" s="33"/>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:49">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V13" s="5"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB13" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC13" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD13" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE13" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="27"/>
+      <c r="AR13" s="27"/>
+      <c r="AS13" s="27"/>
+      <c r="AT13" s="27"/>
+      <c r="AU13" s="30"/>
+      <c r="AV13" s="30"/>
+      <c r="AW13" s="32"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:49">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB14" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC14" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD14" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE14" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="27"/>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="30"/>
+      <c r="AV14" s="30"/>
+      <c r="AW14" s="32"/>
+    </row>
+    <row r="15" s="34" customFormat="1" ht="15" customHeight="1" spans="1:49">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="30"/>
+      <c r="AJ15" s="30"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
+      <c r="AP15" s="27"/>
+      <c r="AQ15" s="27"/>
+      <c r="AR15" s="27"/>
+      <c r="AS15" s="27"/>
+      <c r="AT15" s="27"/>
+      <c r="AU15" s="30"/>
+      <c r="AV15" s="30"/>
+      <c r="AW15" s="32"/>
+    </row>
+    <row r="16" s="34" customFormat="1" ht="15" customHeight="1" spans="1:49">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="27"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="30"/>
+      <c r="AV16" s="30"/>
+      <c r="AW16" s="32"/>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:49">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V17" s="5"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA17" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB17" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC17" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD17" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE17" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="30"/>
+      <c r="AJ17" s="30"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="27"/>
+      <c r="AS17" s="27"/>
+      <c r="AT17" s="27"/>
+      <c r="AU17" s="30"/>
+      <c r="AV17" s="30"/>
+      <c r="AW17" s="32"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:49">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V18" s="5"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA18" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB18" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC18" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD18" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE18" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="27"/>
+      <c r="AS18" s="27"/>
+      <c r="AT18" s="27"/>
+      <c r="AU18" s="30"/>
+      <c r="AV18" s="30"/>
+      <c r="AW18" s="32"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:49">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB19" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC19" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD19" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE19" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="30"/>
+      <c r="AJ19" s="30"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="27"/>
+      <c r="AT19" s="27"/>
+      <c r="AU19" s="30"/>
+      <c r="AV19" s="30"/>
+      <c r="AW19" s="32"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:49">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="V20" s="5"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA20" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB20" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC20" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD20" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE20" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF20" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG20" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="30"/>
+      <c r="AV20" s="30"/>
+      <c r="AW20" s="32"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:49">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V21" s="5"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="30"/>
+      <c r="AJ21" s="30"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="27"/>
+      <c r="AS21" s="27"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="30"/>
+      <c r="AV21" s="30"/>
+      <c r="AW21" s="32"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:49">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="27"/>
+      <c r="AQ22" s="27"/>
+      <c r="AR22" s="27"/>
+      <c r="AS22" s="27"/>
+      <c r="AT22" s="27"/>
+      <c r="AU22" s="30"/>
+      <c r="AV22" s="30"/>
+      <c r="AW22" s="32"/>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:49">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N23" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="30"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="27"/>
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="30"/>
+      <c r="AV23" s="30"/>
+      <c r="AW23" s="32"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:49">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="30"/>
+      <c r="AJ24" s="30"/>
+      <c r="AK24" s="32"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
+      <c r="AP24" s="27"/>
+      <c r="AQ24" s="27"/>
+      <c r="AR24" s="27"/>
+      <c r="AS24" s="27"/>
+      <c r="AT24" s="27"/>
+      <c r="AU24" s="30"/>
+      <c r="AV24" s="30"/>
+      <c r="AW24" s="32"/>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:49">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V25" s="5"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC25" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD25" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE25" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
+      <c r="AP25" s="27"/>
+      <c r="AQ25" s="27"/>
+      <c r="AR25" s="27"/>
+      <c r="AS25" s="27"/>
+      <c r="AT25" s="27"/>
+      <c r="AU25" s="30"/>
+      <c r="AV25" s="30"/>
+      <c r="AW25" s="32"/>
+    </row>
+    <row r="26" ht="15" customHeight="1" spans="1:49">
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="27"/>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="27"/>
+      <c r="AH26" s="27"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="27"/>
+      <c r="AM26" s="27"/>
+      <c r="AN26" s="27"/>
+      <c r="AO26" s="27"/>
+      <c r="AP26" s="27"/>
+      <c r="AQ26" s="27"/>
+      <c r="AR26" s="27"/>
+      <c r="AS26" s="27"/>
+      <c r="AT26" s="27"/>
+      <c r="AU26" s="30"/>
+      <c r="AV26" s="30"/>
+      <c r="AW26" s="32"/>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:49">
+      <c r="A27" s="4">
+        <v>23</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="27"/>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="27"/>
+      <c r="AH27" s="27"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="27"/>
+      <c r="AM27" s="27"/>
+      <c r="AN27" s="27"/>
+      <c r="AO27" s="27"/>
+      <c r="AP27" s="27"/>
+      <c r="AQ27" s="27"/>
+      <c r="AR27" s="27"/>
+      <c r="AS27" s="27"/>
+      <c r="AT27" s="27"/>
+      <c r="AU27" s="30"/>
+      <c r="AV27" s="30"/>
+      <c r="AW27" s="32"/>
+    </row>
+    <row r="28" ht="15" customHeight="1" spans="1:49">
+      <c r="A28" s="4">
+        <v>24</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V28" s="5"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC28" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD28" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE28" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="27"/>
+      <c r="AP28" s="27"/>
+      <c r="AQ28" s="27"/>
+      <c r="AR28" s="27"/>
+      <c r="AS28" s="27"/>
+      <c r="AT28" s="27"/>
+      <c r="AU28" s="30"/>
+      <c r="AV28" s="30"/>
+      <c r="AW28" s="32"/>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="1:49">
+      <c r="A29" s="4">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N29" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V29" s="5"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="26"/>
+      <c r="Z29" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC29" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD29" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE29" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="30"/>
+      <c r="AJ29" s="30"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="27"/>
+      <c r="AN29" s="27"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="27"/>
+      <c r="AQ29" s="27"/>
+      <c r="AR29" s="27"/>
+      <c r="AS29" s="27"/>
+      <c r="AT29" s="27"/>
+      <c r="AU29" s="30"/>
+      <c r="AV29" s="30"/>
+      <c r="AW29" s="32"/>
+    </row>
+    <row r="30" ht="15" customHeight="1" spans="1:49">
+      <c r="A30" s="4">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V30" s="5"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD30" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE30" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH30" s="27"/>
+      <c r="AI30" s="30"/>
+      <c r="AJ30" s="30"/>
+      <c r="AK30" s="32"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="27"/>
+      <c r="AQ30" s="27"/>
+      <c r="AR30" s="27"/>
+      <c r="AS30" s="27"/>
+      <c r="AT30" s="27"/>
+      <c r="AU30" s="30"/>
+      <c r="AV30" s="30"/>
+      <c r="AW30" s="32"/>
+    </row>
+    <row r="31" spans="17:29">
+      <c r="Q31" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="U31" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC31" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="N2:Y3"/>
+    <mergeCell ref="Z2:AK3"/>
+    <mergeCell ref="AL2:AW3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="N1" location="#'目录'!A1" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AW16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2147,151 +5173,151 @@
   <sheetData>
     <row r="1" ht="33.75" customHeight="1" spans="1:49">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>3</v>
-      </c>
       <c r="T1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="X1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>10</v>
-      </c>
       <c r="Y1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>3</v>
-      </c>
       <c r="AF1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ1" s="23" t="s">
-        <v>10</v>
-      </c>
       <c r="AK1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AL1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ1" s="18" t="s">
-        <v>3</v>
-      </c>
       <c r="AR1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="18" t="s">
+      <c r="AV1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AT1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV1" s="23" t="s">
-        <v>10</v>
-      </c>
       <c r="AW1" s="24" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:49">
@@ -2299,34 +5325,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="5"/>
@@ -2341,7 +5367,7 @@
       <c r="X2" s="13"/>
       <c r="Y2" s="26"/>
       <c r="Z2" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA2" s="27"/>
       <c r="AB2" s="27"/>
@@ -2372,34 +5398,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="5"/>
@@ -2414,26 +5440,26 @@
       <c r="X3" s="13"/>
       <c r="Y3" s="26"/>
       <c r="Z3" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA3" s="27" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="AB3" s="27" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="AC3" s="27" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="AD3" s="27" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="AE3" s="27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AF3" s="27"/>
       <c r="AG3" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH3" s="27"/>
       <c r="AI3" s="30"/>
@@ -2457,34 +5483,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>41</v>
+        <v>187</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N4" s="20"/>
       <c r="O4" s="5"/>
@@ -2499,7 +5525,7 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="26"/>
       <c r="Z4" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA4" s="27"/>
       <c r="AB4" s="27"/>
@@ -2530,34 +5556,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>48</v>
+        <v>193</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N5" s="20"/>
       <c r="O5" s="5"/>
@@ -2572,26 +5598,26 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="26"/>
       <c r="Z5" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA5" s="27" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="AB5" s="27" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="AC5" s="27" t="s">
-        <v>49</v>
+        <v>194</v>
       </c>
       <c r="AD5" s="27" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="AE5" s="27" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="AF5" s="27"/>
       <c r="AG5" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH5" s="27"/>
       <c r="AI5" s="30"/>
@@ -2615,34 +5641,34 @@
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>197</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="5"/>
@@ -2657,7 +5683,7 @@
       <c r="X6" s="13"/>
       <c r="Y6" s="26"/>
       <c r="Z6" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA6" s="27"/>
       <c r="AB6" s="27"/>
@@ -2688,34 +5714,34 @@
         <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N7" s="20"/>
       <c r="O7" s="5"/>
@@ -2730,7 +5756,7 @@
       <c r="X7" s="13"/>
       <c r="Y7" s="26"/>
       <c r="Z7" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
@@ -2761,34 +5787,34 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="5"/>
@@ -2803,7 +5829,7 @@
       <c r="X8" s="13"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA8" s="27"/>
       <c r="AB8" s="27"/>
@@ -2834,34 +5860,34 @@
         <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N9" s="20"/>
       <c r="O9" s="5"/>
@@ -2876,7 +5902,7 @@
       <c r="X9" s="13"/>
       <c r="Y9" s="26"/>
       <c r="Z9" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA9" s="27"/>
       <c r="AB9" s="27"/>
@@ -2907,34 +5933,34 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N10" s="20"/>
       <c r="O10" s="5"/>
@@ -2949,7 +5975,7 @@
       <c r="X10" s="13"/>
       <c r="Y10" s="26"/>
       <c r="Z10" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA10" s="27"/>
       <c r="AB10" s="27"/>
@@ -2980,34 +6006,34 @@
         <v>11</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N11" s="20"/>
       <c r="O11" s="5"/>
@@ -3022,7 +6048,7 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="26"/>
       <c r="Z11" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA11" s="27"/>
       <c r="AB11" s="27"/>
@@ -3053,34 +6079,34 @@
         <v>12</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="5"/>
@@ -3095,7 +6121,7 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="26"/>
       <c r="Z12" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA12" s="27"/>
       <c r="AB12" s="27"/>
@@ -3126,34 +6152,34 @@
         <v>13</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N13" s="20"/>
       <c r="O13" s="5"/>
@@ -3168,7 +6194,7 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="26"/>
       <c r="Z13" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA13" s="27"/>
       <c r="AB13" s="27"/>
@@ -3199,34 +6225,34 @@
         <v>14</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N14" s="20"/>
       <c r="O14" s="5"/>
@@ -3241,26 +6267,26 @@
       <c r="X14" s="13"/>
       <c r="Y14" s="26"/>
       <c r="Z14" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA14" s="27" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="AB14" s="27" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="AC14" s="27" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="AD14" s="27" t="s">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="AE14" s="27" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="AF14" s="27"/>
       <c r="AG14" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH14" s="27"/>
       <c r="AI14" s="30"/>
@@ -3284,34 +6310,34 @@
         <v>15</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13" t="s">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N15" s="20"/>
       <c r="O15" s="5"/>
@@ -3326,7 +6352,7 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="26"/>
       <c r="Z15" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA15" s="27"/>
       <c r="AB15" s="27"/>
@@ -3354,10 +6380,10 @@
     </row>
     <row r="16" spans="16:29">
       <c r="P16" s="2" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="AC16" s="27" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -3367,13 +6393,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AW16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3419,151 +6445,151 @@
   <sheetData>
     <row r="1" ht="33.75" customHeight="1" spans="1:49">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>3</v>
-      </c>
       <c r="T1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="X1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>10</v>
-      </c>
       <c r="Y1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>3</v>
-      </c>
       <c r="AF1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ1" s="23" t="s">
-        <v>10</v>
-      </c>
       <c r="AK1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AL1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ1" s="18" t="s">
-        <v>3</v>
-      </c>
       <c r="AR1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="18" t="s">
+      <c r="AV1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AT1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV1" s="23" t="s">
-        <v>10</v>
-      </c>
       <c r="AW1" s="24" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:49">
@@ -3571,34 +6597,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="5"/>
@@ -3613,7 +6639,7 @@
       <c r="X2" s="13"/>
       <c r="Y2" s="26"/>
       <c r="Z2" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA2" s="27"/>
       <c r="AB2" s="27"/>
@@ -3644,34 +6670,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13" t="s">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N3" s="20"/>
       <c r="O3" s="5"/>
@@ -3686,26 +6712,26 @@
       <c r="X3" s="13"/>
       <c r="Y3" s="26"/>
       <c r="Z3" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA3" s="27" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="AB3" s="27" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="AC3" s="27" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="AD3" s="27" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="AE3" s="27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AF3" s="27"/>
       <c r="AG3" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH3" s="27"/>
       <c r="AI3" s="30"/>
@@ -3729,34 +6755,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N4" s="20"/>
       <c r="O4" s="5"/>
@@ -3771,12 +6797,12 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="26"/>
       <c r="Z4" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA4" s="27"/>
       <c r="AB4" s="27"/>
       <c r="AC4" s="27" t="s">
-        <v>93</v>
+        <v>213</v>
       </c>
       <c r="AD4" s="27"/>
       <c r="AE4" s="27"/>
@@ -3804,34 +6830,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N5" s="20"/>
       <c r="O5" s="5"/>
@@ -3846,7 +6872,7 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="26"/>
       <c r="Z5" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA5" s="27"/>
       <c r="AB5" s="27"/>
@@ -3877,34 +6903,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N6" s="20"/>
       <c r="O6" s="5"/>
@@ -3919,7 +6945,7 @@
       <c r="X6" s="13"/>
       <c r="Y6" s="26"/>
       <c r="Z6" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA6" s="27"/>
       <c r="AB6" s="27"/>
@@ -3950,34 +6976,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N7" s="20"/>
       <c r="O7" s="5"/>
@@ -3992,7 +7018,7 @@
       <c r="X7" s="13"/>
       <c r="Y7" s="26"/>
       <c r="Z7" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
@@ -4023,34 +7049,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="5"/>
@@ -4065,7 +7091,7 @@
       <c r="X8" s="13"/>
       <c r="Y8" s="26"/>
       <c r="Z8" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA8" s="27"/>
       <c r="AB8" s="27"/>
@@ -4096,34 +7122,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N9" s="20"/>
       <c r="O9" s="5"/>
@@ -4138,7 +7164,7 @@
       <c r="X9" s="13"/>
       <c r="Y9" s="26"/>
       <c r="Z9" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA9" s="27"/>
       <c r="AB9" s="27"/>
@@ -4169,34 +7195,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N10" s="20"/>
       <c r="O10" s="5"/>
@@ -4211,7 +7237,7 @@
       <c r="X10" s="13"/>
       <c r="Y10" s="26"/>
       <c r="Z10" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA10" s="27"/>
       <c r="AB10" s="27"/>
@@ -4242,34 +7268,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N11" s="20"/>
       <c r="O11" s="5"/>
@@ -4284,7 +7310,7 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="26"/>
       <c r="Z11" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA11" s="27"/>
       <c r="AB11" s="27"/>
@@ -4315,34 +7341,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N12" s="20"/>
       <c r="O12" s="5"/>
@@ -4357,7 +7383,7 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="26"/>
       <c r="Z12" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA12" s="27"/>
       <c r="AB12" s="27"/>
@@ -4388,34 +7414,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N13" s="20"/>
       <c r="O13" s="5"/>
@@ -4430,7 +7456,7 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="26"/>
       <c r="Z13" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA13" s="27"/>
       <c r="AB13" s="27"/>
@@ -4461,34 +7487,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N14" s="20"/>
       <c r="O14" s="5"/>
@@ -4503,26 +7529,26 @@
       <c r="X14" s="13"/>
       <c r="Y14" s="26"/>
       <c r="Z14" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA14" s="27" t="s">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="AB14" s="27" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="AC14" s="27" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="AD14" s="27" t="s">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="AE14" s="27" t="s">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="AF14" s="27"/>
       <c r="AG14" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH14" s="27"/>
       <c r="AI14" s="30"/>
@@ -4546,34 +7572,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13" t="s">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N15" s="20"/>
       <c r="O15" s="5"/>
@@ -4588,7 +7614,7 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="26"/>
       <c r="Z15" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA15" s="27"/>
       <c r="AB15" s="27"/>
@@ -4616,10 +7642,10 @@
     </row>
     <row r="16" spans="17:29">
       <c r="Q16" s="2" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4629,17 +7655,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AW28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5480769230769" defaultRowHeight="16.8"/>
@@ -4681,151 +7707,151 @@
   <sheetData>
     <row r="1" ht="33.75" customHeight="1" spans="1:49">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>3</v>
-      </c>
       <c r="T1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="X1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>10</v>
-      </c>
       <c r="Y1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>3</v>
-      </c>
       <c r="AF1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AJ1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ1" s="23" t="s">
-        <v>10</v>
-      </c>
       <c r="AK1" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AL1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ1" s="18" t="s">
-        <v>3</v>
-      </c>
       <c r="AR1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="AS1" s="18" t="s">
+      <c r="AV1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="AT1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV1" s="23" t="s">
-        <v>10</v>
-      </c>
       <c r="AW1" s="24" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:49">
@@ -4833,37 +7859,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -4877,7 +7903,7 @@
       <c r="X2" s="13"/>
       <c r="Y2" s="26"/>
       <c r="Z2" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA2" s="27"/>
       <c r="AB2" s="27"/>
@@ -4908,82 +7934,82 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="T3" s="5"/>
       <c r="U3" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
       <c r="Y3" s="26"/>
       <c r="Z3" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA3" s="27" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="AB3" s="27" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="AC3" s="27" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="AD3" s="27" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="AE3" s="27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AF3" s="27"/>
       <c r="AG3" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH3" s="27"/>
       <c r="AI3" s="30"/>
@@ -5007,82 +8033,82 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="M4" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="T4" s="5"/>
       <c r="U4" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="26"/>
       <c r="Z4" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA4" s="27" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="AB4" s="27" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="AC4" s="27" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="AD4" s="27" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="AE4" s="27" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="AF4" s="27"/>
       <c r="AG4" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH4" s="27"/>
       <c r="AI4" s="30"/>
@@ -5106,82 +8132,82 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
       <c r="Y5" s="26"/>
       <c r="Z5" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA5" s="27" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="AB5" s="27" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="AD5" s="27" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="AE5" s="27" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="AF5" s="27"/>
       <c r="AG5" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH5" s="27"/>
       <c r="AI5" s="30"/>
@@ -5205,82 +8231,82 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="V6" s="5"/>
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
       <c r="Y6" s="26"/>
       <c r="Z6" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA6" s="27" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="AB6" s="27" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="AC6" s="27" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="AD6" s="27" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="AE6" s="27" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="AF6" s="27"/>
       <c r="AG6" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH6" s="27"/>
       <c r="AI6" s="30"/>
@@ -5304,39 +8330,39 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
@@ -5350,7 +8376,7 @@
       <c r="X7" s="14"/>
       <c r="Y7" s="28"/>
       <c r="Z7" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA7" s="29"/>
       <c r="AB7" s="29"/>
@@ -5381,39 +8407,39 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14"/>
       <c r="L8" s="14" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
@@ -5427,7 +8453,7 @@
       <c r="X8" s="14"/>
       <c r="Y8" s="28"/>
       <c r="Z8" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA8" s="29"/>
       <c r="AB8" s="29"/>
@@ -5458,39 +8484,39 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
       <c r="L9" s="14" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
@@ -5504,7 +8530,7 @@
       <c r="X9" s="14"/>
       <c r="Y9" s="28"/>
       <c r="Z9" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA9" s="29"/>
       <c r="AB9" s="29"/>
@@ -5535,82 +8561,82 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="T10" s="5"/>
       <c r="U10" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="26"/>
       <c r="Z10" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA10" s="27" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="AB10" s="27" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="AC10" s="27" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="AD10" s="27" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="AE10" s="27" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="AF10" s="27"/>
       <c r="AG10" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH10" s="27"/>
       <c r="AI10" s="30"/>
@@ -5634,82 +8660,82 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="T11" s="5"/>
       <c r="U11" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="V11" s="5"/>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="26"/>
       <c r="Z11" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA11" s="27" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="AB11" s="27" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="AC11" s="27" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="AD11" s="27" t="s">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c r="AE11" s="27" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="AF11" s="27"/>
       <c r="AG11" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH11" s="27"/>
       <c r="AI11" s="30"/>
@@ -5733,37 +8759,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -5777,7 +8803,7 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="26"/>
       <c r="Z12" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA12" s="27"/>
       <c r="AB12" s="27"/>
@@ -5808,37 +8834,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>166</v>
+        <v>104</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -5852,7 +8878,7 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="26"/>
       <c r="Z13" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA13" s="27"/>
       <c r="AB13" s="27"/>
@@ -5883,82 +8909,82 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>168</v>
+        <v>106</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="V14" s="5"/>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="26"/>
       <c r="Z14" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA14" s="27" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="AB14" s="27" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="AC14" s="27" t="s">
-        <v>169</v>
+        <v>109</v>
       </c>
       <c r="AD14" s="27" t="s">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="AE14" s="27" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="AF14" s="27"/>
       <c r="AG14" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH14" s="27"/>
       <c r="AI14" s="30"/>
@@ -5982,82 +9008,82 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>173</v>
+        <v>113</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N15" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="P15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Q15" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="R15" s="5" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="V15" s="5"/>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
       <c r="Y15" s="26"/>
       <c r="Z15" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA15" s="27" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="AB15" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC15" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="AC15" s="27" t="s">
-        <v>175</v>
-      </c>
       <c r="AD15" s="27" t="s">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="AE15" s="27" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="AF15" s="27"/>
       <c r="AG15" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH15" s="27"/>
       <c r="AI15" s="30"/>
@@ -6081,82 +9107,82 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N16" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="T16" s="5"/>
       <c r="U16" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="V16" s="5"/>
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="26"/>
       <c r="Z16" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA16" s="27" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="AB16" s="27" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="AC16" s="27" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="AD16" s="27" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="AE16" s="27" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="AF16" s="27"/>
       <c r="AG16" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH16" s="27"/>
       <c r="AI16" s="30"/>
@@ -6180,86 +9206,86 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="V17" s="5"/>
       <c r="W17" s="13"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="26"/>
       <c r="Z17" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA17" s="27" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="AB17" s="27" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="AC17" s="27" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="AD17" s="27" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="AE17" s="27" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="AF17" s="27" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="AG17" s="27" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="AH17" s="27"/>
       <c r="AI17" s="30"/>
@@ -6283,60 +9309,60 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="V18" s="5"/>
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="26"/>
       <c r="Z18" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA18" s="27"/>
       <c r="AB18" s="27"/>
       <c r="AC18" s="5" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="AD18" s="27"/>
       <c r="AE18" s="27"/>
@@ -6364,37 +9390,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>60</v>
+        <v>128</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>144</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N19" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -6408,7 +9434,7 @@
       <c r="X19" s="13"/>
       <c r="Y19" s="26"/>
       <c r="Z19" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA19" s="27"/>
       <c r="AB19" s="27"/>
@@ -6439,37 +9465,37 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N20" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -6483,7 +9509,7 @@
       <c r="X20" s="13"/>
       <c r="Y20" s="26"/>
       <c r="Z20" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA20" s="27"/>
       <c r="AB20" s="27"/>
@@ -6514,37 +9540,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
@@ -6558,7 +9584,7 @@
       <c r="X21" s="13"/>
       <c r="Y21" s="26"/>
       <c r="Z21" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA21" s="27"/>
       <c r="AB21" s="27"/>
@@ -6589,82 +9615,82 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N22" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="T22" s="5"/>
       <c r="U22" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="V22" s="5"/>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="26"/>
       <c r="Z22" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="AB22" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="AC22" s="5" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="AD22" s="27" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="AE22" s="27" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="AF22" s="27"/>
       <c r="AG22" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH22" s="27"/>
       <c r="AI22" s="30"/>
@@ -6688,37 +9714,37 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N23" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
@@ -6732,7 +9758,7 @@
       <c r="X23" s="13"/>
       <c r="Y23" s="26"/>
       <c r="Z23" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA23" s="5"/>
       <c r="AB23" s="5"/>
@@ -6763,37 +9789,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N24" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -6807,7 +9833,7 @@
       <c r="X24" s="13"/>
       <c r="Y24" s="26"/>
       <c r="Z24" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA24" s="5"/>
       <c r="AB24" s="5"/>
@@ -6838,82 +9864,82 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N25" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="T25" s="5"/>
       <c r="U25" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="V25" s="5"/>
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="26"/>
       <c r="Z25" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="AD25" s="27" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="AE25" s="27" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="AF25" s="27"/>
       <c r="AG25" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH25" s="27"/>
       <c r="AI25" s="30"/>
@@ -6937,82 +9963,82 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="T26" s="5"/>
       <c r="U26" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="V26" s="5"/>
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="26"/>
       <c r="Z26" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="AB26" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="AC26" s="5" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="AD26" s="27" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="AE26" s="27" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="AF26" s="27"/>
       <c r="AG26" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH26" s="27"/>
       <c r="AI26" s="30"/>
@@ -7036,82 +10062,82 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N27" s="20" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="T27" s="5"/>
       <c r="U27" s="5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="V27" s="5"/>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="26"/>
       <c r="Z27" s="27" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="AC27" s="5" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="AD27" s="27" t="s">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c r="AE27" s="27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AF27" s="27"/>
       <c r="AG27" s="27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AH27" s="27"/>
       <c r="AI27" s="30"/>
@@ -7132,13 +10158,13 @@
     </row>
     <row r="28" spans="17:29">
       <c r="Q28" s="2" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
